--- a/Win32/Debug/Base/test_13_11_24_1/Сахалин. дорога/Скважина 13и/Скважина 13и.xlsx
+++ b/Win32/Debug/Base/test_13_11_24_1/Сахалин. дорога/Скважина 13и/Скважина 13и.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1137">
   <si>
     <t>Площадка:</t>
   </si>
@@ -53,40 +53,58 @@
     <t>13-08-24 02:12</t>
   </si>
   <si>
+    <t>Азимут сещение:</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
     <t>Завершено:</t>
   </si>
   <si>
-    <t>13-11-24 13:25</t>
-  </si>
-  <si>
-    <t>Глубина</t>
-  </si>
-  <si>
-    <t>Погр. тр.</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>LX</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>LY</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>AR</t>
+    <t>21-11-24 21:26</t>
+  </si>
+  <si>
+    <t>Уровень</t>
+  </si>
+  <si>
+    <t>Показания зонда, X1, угл. сек</t>
+  </si>
+  <si>
+    <t>Показания зонда, X2, угл. сек</t>
+  </si>
+  <si>
+    <t>Отклонение скважины от вертикали  по оси X,мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Показания зонда, Y1, угл. сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Показания зонда, Y2, угл. сек</t>
+  </si>
+  <si>
+    <t>Отклонение скважины от вертикали  по оси Y,мм</t>
+  </si>
+  <si>
+    <t>Отклонение скважины от вертикали  суммарное</t>
+  </si>
+  <si>
+    <t>Азимут отклонения скважины в системе координат, где 0 - вдоль оси X</t>
+  </si>
+  <si>
+    <t>Азимут отклонения скважины в географической системе координат, °</t>
+  </si>
+  <si>
+    <t>Смещение скважины относительно нулевого цикла  по оси Х, мм</t>
+  </si>
+  <si>
+    <t>Смещение скважины относительно нулевого цикла  по оси Y, мм</t>
+  </si>
+  <si>
+    <t>Результирующее смещение скважины относительно нулевого цикла, мм</t>
+  </si>
+  <si>
+    <t>Азимут результирующего смещения относительно нулевого цикла, °</t>
   </si>
   <si>
     <t>0,00</t>
@@ -1517,6 +1535,21 @@
     <t>51,61</t>
   </si>
   <si>
+    <t>231,61</t>
+  </si>
+  <si>
+    <t>-24,65</t>
+  </si>
+  <si>
+    <t>13,06</t>
+  </si>
+  <si>
+    <t>27,89</t>
+  </si>
+  <si>
+    <t>152,08</t>
+  </si>
+  <si>
     <t>-4490,00</t>
   </si>
   <si>
@@ -1538,6 +1571,21 @@
     <t>53,97</t>
   </si>
   <si>
+    <t>233,97</t>
+  </si>
+  <si>
+    <t>-16,35</t>
+  </si>
+  <si>
+    <t>8,91</t>
+  </si>
+  <si>
+    <t>18,62</t>
+  </si>
+  <si>
+    <t>151,42</t>
+  </si>
+  <si>
     <t>-4097,00</t>
   </si>
   <si>
@@ -1562,6 +1610,21 @@
     <t>56,53</t>
   </si>
   <si>
+    <t>236,53</t>
+  </si>
+  <si>
+    <t>-9,32</t>
+  </si>
+  <si>
+    <t>5,63</t>
+  </si>
+  <si>
+    <t>10,89</t>
+  </si>
+  <si>
+    <t>148,87</t>
+  </si>
+  <si>
     <t>-2892,00</t>
   </si>
   <si>
@@ -1583,6 +1646,21 @@
     <t>59,13</t>
   </si>
   <si>
+    <t>239,13</t>
+  </si>
+  <si>
+    <t>-4,27</t>
+  </si>
+  <si>
+    <t>3,20</t>
+  </si>
+  <si>
+    <t>5,33</t>
+  </si>
+  <si>
+    <t>143,16</t>
+  </si>
+  <si>
     <t>-1985,00</t>
   </si>
   <si>
@@ -1607,6 +1685,21 @@
     <t>60,95</t>
   </si>
   <si>
+    <t>240,95</t>
+  </si>
+  <si>
+    <t>-1,02</t>
+  </si>
+  <si>
+    <t>1,24</t>
+  </si>
+  <si>
+    <t>1,61</t>
+  </si>
+  <si>
+    <t>129,22</t>
+  </si>
+  <si>
     <t>-1735,00</t>
   </si>
   <si>
@@ -1631,6 +1724,21 @@
     <t>60,54</t>
   </si>
   <si>
+    <t>240,54</t>
+  </si>
+  <si>
+    <t>-1,46</t>
+  </si>
+  <si>
+    <t>0,43</t>
+  </si>
+  <si>
+    <t>1,52</t>
+  </si>
+  <si>
+    <t>163,63</t>
+  </si>
+  <si>
     <t>-1224,00</t>
   </si>
   <si>
@@ -1652,6 +1760,21 @@
     <t>59,05</t>
   </si>
   <si>
+    <t>239,05</t>
+  </si>
+  <si>
+    <t>-1,79</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>1,79</t>
+  </si>
+  <si>
+    <t>176,69</t>
+  </si>
+  <si>
     <t>-2279,00</t>
   </si>
   <si>
@@ -1673,6 +1796,21 @@
     <t>56,37</t>
   </si>
   <si>
+    <t>236,37</t>
+  </si>
+  <si>
+    <t>-1,44</t>
+  </si>
+  <si>
+    <t>0,16</t>
+  </si>
+  <si>
+    <t>1,44</t>
+  </si>
+  <si>
+    <t>173,53</t>
+  </si>
+  <si>
     <t>-280,00</t>
   </si>
   <si>
@@ -1697,6 +1835,18 @@
     <t>52,72</t>
   </si>
   <si>
+    <t>232,72</t>
+  </si>
+  <si>
+    <t>0,36</t>
+  </si>
+  <si>
+    <t>1,08</t>
+  </si>
+  <si>
+    <t>160,46</t>
+  </si>
+  <si>
     <t>372,00</t>
   </si>
   <si>
@@ -1721,6 +1871,21 @@
     <t>47,75</t>
   </si>
   <si>
+    <t>227,75</t>
+  </si>
+  <si>
+    <t>-0,82</t>
+  </si>
+  <si>
+    <t>0,37</t>
+  </si>
+  <si>
+    <t>0,90</t>
+  </si>
+  <si>
+    <t>156,06</t>
+  </si>
+  <si>
     <t>408,00</t>
   </si>
   <si>
@@ -1745,6 +1910,21 @@
     <t>41,44</t>
   </si>
   <si>
+    <t>221,44</t>
+  </si>
+  <si>
+    <t>-0,50</t>
+  </si>
+  <si>
+    <t>0,73</t>
+  </si>
+  <si>
+    <t>0,89</t>
+  </si>
+  <si>
+    <t>124,23</t>
+  </si>
+  <si>
     <t>393,00</t>
   </si>
   <si>
@@ -1769,6 +1949,18 @@
     <t>35,19</t>
   </si>
   <si>
+    <t>215,19</t>
+  </si>
+  <si>
+    <t>-0,16</t>
+  </si>
+  <si>
+    <t>1,09</t>
+  </si>
+  <si>
+    <t>98,26</t>
+  </si>
+  <si>
     <t>320,00</t>
   </si>
   <si>
@@ -1793,6 +1985,21 @@
     <t>30,11</t>
   </si>
   <si>
+    <t>210,11</t>
+  </si>
+  <si>
+    <t>-0,47</t>
+  </si>
+  <si>
+    <t>0,88</t>
+  </si>
+  <si>
+    <t>0,99</t>
+  </si>
+  <si>
+    <t>117,93</t>
+  </si>
+  <si>
     <t>382,00</t>
   </si>
   <si>
@@ -1817,6 +2024,21 @@
     <t>26,55</t>
   </si>
   <si>
+    <t>206,55</t>
+  </si>
+  <si>
+    <t>-1,37</t>
+  </si>
+  <si>
+    <t>0,35</t>
+  </si>
+  <si>
+    <t>1,42</t>
+  </si>
+  <si>
+    <t>165,59</t>
+  </si>
+  <si>
     <t>110,00</t>
   </si>
   <si>
@@ -1841,6 +2063,21 @@
     <t>23,41</t>
   </si>
   <si>
+    <t>203,41</t>
+  </si>
+  <si>
+    <t>-1,81</t>
+  </si>
+  <si>
+    <t>0,20</t>
+  </si>
+  <si>
+    <t>1,82</t>
+  </si>
+  <si>
+    <t>173,70</t>
+  </si>
+  <si>
     <t>763,00</t>
   </si>
   <si>
@@ -1862,6 +2099,21 @@
     <t>20,74</t>
   </si>
   <si>
+    <t>200,74</t>
+  </si>
+  <si>
+    <t>-1,70</t>
+  </si>
+  <si>
+    <t>0,28</t>
+  </si>
+  <si>
+    <t>1,72</t>
+  </si>
+  <si>
+    <t>170,62</t>
+  </si>
+  <si>
     <t>1451,00</t>
   </si>
   <si>
@@ -1886,6 +2138,18 @@
     <t>17,33</t>
   </si>
   <si>
+    <t>197,33</t>
+  </si>
+  <si>
+    <t>-1,68</t>
+  </si>
+  <si>
+    <t>0,41</t>
+  </si>
+  <si>
+    <t>166,29</t>
+  </si>
+  <si>
     <t>235,00</t>
   </si>
   <si>
@@ -1910,6 +2174,21 @@
     <t>12,61</t>
   </si>
   <si>
+    <t>192,61</t>
+  </si>
+  <si>
+    <t>-1,91</t>
+  </si>
+  <si>
+    <t>0,67</t>
+  </si>
+  <si>
+    <t>2,03</t>
+  </si>
+  <si>
+    <t>160,58</t>
+  </si>
+  <si>
     <t>-1326,00</t>
   </si>
   <si>
@@ -1934,6 +2213,21 @@
     <t>9,14</t>
   </si>
   <si>
+    <t>189,14</t>
+  </si>
+  <si>
+    <t>-1,84</t>
+  </si>
+  <si>
+    <t>0,64</t>
+  </si>
+  <si>
+    <t>1,94</t>
+  </si>
+  <si>
+    <t>160,71</t>
+  </si>
+  <si>
     <t>-2631,00</t>
   </si>
   <si>
@@ -1958,6 +2252,18 @@
     <t>6,60</t>
   </si>
   <si>
+    <t>186,60</t>
+  </si>
+  <si>
+    <t>0,32</t>
+  </si>
+  <si>
+    <t>1,41</t>
+  </si>
+  <si>
+    <t>166,89</t>
+  </si>
+  <si>
     <t>-4043,00</t>
   </si>
   <si>
@@ -1982,6 +2288,18 @@
     <t>4,29</t>
   </si>
   <si>
+    <t>184,29</t>
+  </si>
+  <si>
+    <t>-1,15</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>180,95</t>
+  </si>
+  <si>
     <t>-4065,00</t>
   </si>
   <si>
@@ -2006,6 +2324,21 @@
     <t>2,31</t>
   </si>
   <si>
+    <t>182,31</t>
+  </si>
+  <si>
+    <t>-1,30</t>
+  </si>
+  <si>
+    <t>-0,10</t>
+  </si>
+  <si>
+    <t>1,31</t>
+  </si>
+  <si>
+    <t>184,35</t>
+  </si>
+  <si>
     <t>-2902,00</t>
   </si>
   <si>
@@ -2030,6 +2363,21 @@
     <t>0,21</t>
   </si>
   <si>
+    <t>180,21</t>
+  </si>
+  <si>
+    <t>-1,53</t>
+  </si>
+  <si>
+    <t>-0,35</t>
+  </si>
+  <si>
+    <t>1,57</t>
+  </si>
+  <si>
+    <t>192,80</t>
+  </si>
+  <si>
     <t>-3721,00</t>
   </si>
   <si>
@@ -2054,6 +2402,15 @@
     <t>-3,43</t>
   </si>
   <si>
+    <t>176,57</t>
+  </si>
+  <si>
+    <t>1,81</t>
+  </si>
+  <si>
+    <t>178,96</t>
+  </si>
+  <si>
     <t>-4300,00</t>
   </si>
   <si>
@@ -2078,6 +2435,21 @@
     <t>-6,50</t>
   </si>
   <si>
+    <t>173,50</t>
+  </si>
+  <si>
+    <t>-1,56</t>
+  </si>
+  <si>
+    <t>0,78</t>
+  </si>
+  <si>
+    <t>1,74</t>
+  </si>
+  <si>
+    <t>153,51</t>
+  </si>
+  <si>
     <t>-4795,00</t>
   </si>
   <si>
@@ -2102,6 +2474,21 @@
     <t>-8,93</t>
   </si>
   <si>
+    <t>171,07</t>
+  </si>
+  <si>
+    <t>-0,63</t>
+  </si>
+  <si>
+    <t>1,46</t>
+  </si>
+  <si>
+    <t>1,59</t>
+  </si>
+  <si>
+    <t>113,29</t>
+  </si>
+  <si>
     <t>-5332,00</t>
   </si>
   <si>
@@ -2126,6 +2513,21 @@
     <t>-11,02</t>
   </si>
   <si>
+    <t>168,98</t>
+  </si>
+  <si>
+    <t>0,72</t>
+  </si>
+  <si>
+    <t>1,38</t>
+  </si>
+  <si>
+    <t>1,56</t>
+  </si>
+  <si>
+    <t>62,39</t>
+  </si>
+  <si>
     <t>-5812,00</t>
   </si>
   <si>
@@ -2150,6 +2552,18 @@
     <t>-12,39</t>
   </si>
   <si>
+    <t>167,61</t>
+  </si>
+  <si>
+    <t>2,12</t>
+  </si>
+  <si>
+    <t>-0,03</t>
+  </si>
+  <si>
+    <t>-0,68</t>
+  </si>
+  <si>
     <t>-5210,00</t>
   </si>
   <si>
@@ -2174,6 +2588,21 @@
     <t>-12,88</t>
   </si>
   <si>
+    <t>167,12</t>
+  </si>
+  <si>
+    <t>3,79</t>
+  </si>
+  <si>
+    <t>-2,92</t>
+  </si>
+  <si>
+    <t>4,78</t>
+  </si>
+  <si>
+    <t>-37,61</t>
+  </si>
+  <si>
     <t>-4132,00</t>
   </si>
   <si>
@@ -2195,6 +2624,21 @@
     <t>36,39</t>
   </si>
   <si>
+    <t>168,25</t>
+  </si>
+  <si>
+    <t>5,25</t>
+  </si>
+  <si>
+    <t>-6,89</t>
+  </si>
+  <si>
+    <t>8,66</t>
+  </si>
+  <si>
+    <t>-52,66</t>
+  </si>
+  <si>
     <t>-2879,00</t>
   </si>
   <si>
@@ -2219,6 +2663,21 @@
     <t>-9,33</t>
   </si>
   <si>
+    <t>170,67</t>
+  </si>
+  <si>
+    <t>6,13</t>
+  </si>
+  <si>
+    <t>-11,03</t>
+  </si>
+  <si>
+    <t>12,62</t>
+  </si>
+  <si>
+    <t>-60,92</t>
+  </si>
+  <si>
     <t>-1859,00</t>
   </si>
   <si>
@@ -2234,15 +2693,24 @@
     <t>2804,00</t>
   </si>
   <si>
-    <t>2,12</t>
-  </si>
-  <si>
     <t>26,50</t>
   </si>
   <si>
     <t>-4,59</t>
   </si>
   <si>
+    <t>175,41</t>
+  </si>
+  <si>
+    <t>6,17</t>
+  </si>
+  <si>
+    <t>-14,76</t>
+  </si>
+  <si>
+    <t>-67,31</t>
+  </si>
+  <si>
     <t>-813,00</t>
   </si>
   <si>
@@ -2267,6 +2735,18 @@
     <t>1,87</t>
   </si>
   <si>
+    <t>181,87</t>
+  </si>
+  <si>
+    <t>5,46</t>
+  </si>
+  <si>
+    <t>-17,68</t>
+  </si>
+  <si>
+    <t>-72,85</t>
+  </si>
+  <si>
     <t>71,00</t>
   </si>
   <si>
@@ -2291,6 +2771,21 @@
     <t>6,36</t>
   </si>
   <si>
+    <t>186,36</t>
+  </si>
+  <si>
+    <t>4,11</t>
+  </si>
+  <si>
+    <t>-19,53</t>
+  </si>
+  <si>
+    <t>19,95</t>
+  </si>
+  <si>
+    <t>-78,12</t>
+  </si>
+  <si>
     <t>720,00</t>
   </si>
   <si>
@@ -2315,6 +2810,21 @@
     <t>6,61</t>
   </si>
   <si>
+    <t>186,61</t>
+  </si>
+  <si>
+    <t>2,20</t>
+  </si>
+  <si>
+    <t>-20,02</t>
+  </si>
+  <si>
+    <t>20,14</t>
+  </si>
+  <si>
+    <t>-83,74</t>
+  </si>
+  <si>
     <t>845,00</t>
   </si>
   <si>
@@ -2339,6 +2849,21 @@
     <t>3,67</t>
   </si>
   <si>
+    <t>183,67</t>
+  </si>
+  <si>
+    <t>-0,15</t>
+  </si>
+  <si>
+    <t>-18,88</t>
+  </si>
+  <si>
+    <t>18,88</t>
+  </si>
+  <si>
+    <t>269,56</t>
+  </si>
+  <si>
     <t>680,00</t>
   </si>
   <si>
@@ -2363,6 +2888,21 @@
     <t>-0,34</t>
   </si>
   <si>
+    <t>179,66</t>
+  </si>
+  <si>
+    <t>-2,46</t>
+  </si>
+  <si>
+    <t>-16,74</t>
+  </si>
+  <si>
+    <t>16,92</t>
+  </si>
+  <si>
+    <t>261,63</t>
+  </si>
+  <si>
     <t>-150,00</t>
   </si>
   <si>
@@ -2387,6 +2927,21 @@
     <t>-5,41</t>
   </si>
   <si>
+    <t>174,59</t>
+  </si>
+  <si>
+    <t>-4,38</t>
+  </si>
+  <si>
+    <t>-13,77</t>
+  </si>
+  <si>
+    <t>14,45</t>
+  </si>
+  <si>
+    <t>252,34</t>
+  </si>
+  <si>
     <t>-1266,00</t>
   </si>
   <si>
@@ -2411,6 +2966,21 @@
     <t>-10,18</t>
   </si>
   <si>
+    <t>169,82</t>
+  </si>
+  <si>
+    <t>-5,46</t>
+  </si>
+  <si>
+    <t>-10,33</t>
+  </si>
+  <si>
+    <t>11,68</t>
+  </si>
+  <si>
+    <t>242,14</t>
+  </si>
+  <si>
     <t>-2573,00</t>
   </si>
   <si>
@@ -2429,6 +2999,15 @@
     <t>-14,41</t>
   </si>
   <si>
+    <t>-5,49</t>
+  </si>
+  <si>
+    <t>8,81</t>
+  </si>
+  <si>
+    <t>231,47</t>
+  </si>
+  <si>
     <t>-2256,00</t>
   </si>
   <si>
@@ -2450,7 +3029,19 @@
     <t>52,11</t>
   </si>
   <si>
-    <t>-17,68</t>
+    <t>162,32</t>
+  </si>
+  <si>
+    <t>-4,64</t>
+  </si>
+  <si>
+    <t>-3,94</t>
+  </si>
+  <si>
+    <t>6,09</t>
+  </si>
+  <si>
+    <t>220,33</t>
   </si>
   <si>
     <t>-2788,00</t>
@@ -2477,6 +3068,21 @@
     <t>-24,20</t>
   </si>
   <si>
+    <t>155,80</t>
+  </si>
+  <si>
+    <t>-3,14</t>
+  </si>
+  <si>
+    <t>-1,67</t>
+  </si>
+  <si>
+    <t>3,56</t>
+  </si>
+  <si>
+    <t>207,94</t>
+  </si>
+  <si>
     <t>-3100,00</t>
   </si>
   <si>
@@ -2498,6 +3104,18 @@
     <t>-29,08</t>
   </si>
   <si>
+    <t>150,92</t>
+  </si>
+  <si>
+    <t>-0,39</t>
+  </si>
+  <si>
+    <t>1,73</t>
+  </si>
+  <si>
+    <t>193,03</t>
+  </si>
+  <si>
     <t>-2751,00</t>
   </si>
   <si>
@@ -2522,6 +3140,18 @@
     <t>-32,32</t>
   </si>
   <si>
+    <t>147,68</t>
+  </si>
+  <si>
+    <t>-0,22</t>
+  </si>
+  <si>
+    <t>0,85</t>
+  </si>
+  <si>
+    <t>194,85</t>
+  </si>
+  <si>
     <t>-829,00</t>
   </si>
   <si>
@@ -2543,6 +3173,21 @@
     <t>-34,94</t>
   </si>
   <si>
+    <t>145,06</t>
+  </si>
+  <si>
+    <t>-0,61</t>
+  </si>
+  <si>
+    <t>-0,23</t>
+  </si>
+  <si>
+    <t>0,65</t>
+  </si>
+  <si>
+    <t>200,42</t>
+  </si>
+  <si>
     <t>-2853,00</t>
   </si>
   <si>
@@ -2567,6 +3212,18 @@
     <t>-37,37</t>
   </si>
   <si>
+    <t>142,63</t>
+  </si>
+  <si>
+    <t>-0,45</t>
+  </si>
+  <si>
+    <t>0,49</t>
+  </si>
+  <si>
+    <t>155,72</t>
+  </si>
+  <si>
     <t>-3202,00</t>
   </si>
   <si>
@@ -2591,6 +3248,18 @@
     <t>-38,51</t>
   </si>
   <si>
+    <t>141,49</t>
+  </si>
+  <si>
+    <t>-0,20</t>
+  </si>
+  <si>
+    <t>0,68</t>
+  </si>
+  <si>
+    <t>107,04</t>
+  </si>
+  <si>
     <t>-3482,00</t>
   </si>
   <si>
@@ -2615,6 +3284,9 @@
     <t>-36,84</t>
   </si>
   <si>
+    <t>105,34</t>
+  </si>
+  <si>
     <t>-3468,00</t>
   </si>
   <si>
@@ -2639,6 +3311,15 @@
     <t>-36,28</t>
   </si>
   <si>
+    <t>143,72</t>
+  </si>
+  <si>
+    <t>-0,12</t>
+  </si>
+  <si>
+    <t>109,49</t>
+  </si>
+  <si>
     <t>-3999,00</t>
   </si>
   <si>
@@ -2663,6 +3344,21 @@
     <t>-36,08</t>
   </si>
   <si>
+    <t>143,92</t>
+  </si>
+  <si>
+    <t>-0,26</t>
+  </si>
+  <si>
+    <t>0,45</t>
+  </si>
+  <si>
+    <t>0,52</t>
+  </si>
+  <si>
+    <t>120,02</t>
+  </si>
+  <si>
     <t>-4388,00</t>
   </si>
   <si>
@@ -2687,6 +3383,21 @@
     <t>-36,78</t>
   </si>
   <si>
+    <t>143,22</t>
+  </si>
+  <si>
+    <t>-0,28</t>
+  </si>
+  <si>
+    <t>0,46</t>
+  </si>
+  <si>
+    <t>0,54</t>
+  </si>
+  <si>
+    <t>121,32</t>
+  </si>
+  <si>
     <t>-4372,00</t>
   </si>
   <si>
@@ -2702,10 +3413,19 @@
     <t>1725,00</t>
   </si>
   <si>
-    <t>5,25</t>
-  </si>
-  <si>
     <t>8,64</t>
+  </si>
+  <si>
+    <t>142,57</t>
+  </si>
+  <si>
+    <t>-0,11</t>
+  </si>
+  <si>
+    <t>0,23</t>
+  </si>
+  <si>
+    <t>117,63</t>
   </si>
 </sst>
 </file>
@@ -3039,13 +3759,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3061,7 +3781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3069,7 +3789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3077,7 +3797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3085,7 +3805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3093,7 +3813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3101,1700 +3821,2344 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="J22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="J23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="J24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="J25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="J27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="J29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="J30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="J31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="J33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="J34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="J35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="J36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="J37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="J38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="J40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="J41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="J42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="J43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="J44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="J45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="J46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="J47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="J48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="J49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="J50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="J51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="J52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="J53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="J54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="J56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="J57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="J58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="J59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="J60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>489</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4804,13 +6168,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4818,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4826,7 +6190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4834,7 +6198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4842,23 +6206,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -4866,82 +6230,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>501</v>
@@ -4961,1605 +6313,2261 @@
       <c r="J10" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>511</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>518</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>523</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>251</v>
+        <v>525</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>531</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>522</v>
+        <v>257</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>543</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>548</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>556</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>561</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>225</v>
+        <v>567</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>569</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>574</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>421</v>
+        <v>575</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="K57" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="N57" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="N58" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>422</v>
+      <c r="M61" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
